--- a/Document/1차 테스트 빌드 목표.xlsx
+++ b/Document/1차 테스트 빌드 목표.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\210\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\210\Desktop\Gorilla-box\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,6 @@
     <sheet name="레벨 내용 " sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -89,10 +88,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">몬스터_제자리 패트롤 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>몬스터_ 추적 패트롤</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -350,6 +345,10 @@
   </si>
   <si>
     <t>강일구, 박성혁</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄴ</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -833,40 +832,40 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1209,27 +1208,27 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>76</v>
       </c>
       <c r="E3" s="5"/>
     </row>
@@ -1267,8 +1266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23:F23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1341,29 +1340,29 @@
       <c r="B14" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
+      <c r="C14" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
       <c r="G14" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H14" s="21"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D15" s="24"/>
       <c r="E15" s="24"/>
       <c r="F15" s="24"/>
       <c r="G15" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H15" s="22"/>
     </row>
@@ -1371,119 +1370,119 @@
       <c r="B16" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
+      <c r="C16" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
       <c r="G16" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H16" s="23"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
+        <v>80</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
       <c r="G17" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H17" s="21"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
       <c r="F18" s="24"/>
       <c r="G18" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H18" s="22"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" s="24"/>
       <c r="E19" s="24"/>
       <c r="F19" s="24"/>
       <c r="G19" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H19" s="22"/>
     </row>
     <row r="20" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
+        <v>18</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
       <c r="G20" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H20" s="23"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="30"/>
+        <v>31</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="33"/>
       <c r="G21" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H21" s="16"/>
     </row>
     <row r="22" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="34"/>
+        <v>32</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="28"/>
       <c r="G22" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H22" s="11"/>
     </row>
     <row r="23" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="37"/>
+        <v>33</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="36"/>
       <c r="G23" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H23" s="13"/>
     </row>
@@ -1502,7 +1501,7 @@
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.3">
@@ -1524,76 +1523,76 @@
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="34"/>
+        <v>46</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="28"/>
       <c r="G30" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H30" s="4"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C31" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="34"/>
+        <v>57</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="28"/>
       <c r="G31" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H31" s="4"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C32" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="34"/>
+        <v>53</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="28"/>
       <c r="G32" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H32" s="4"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C33" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="34"/>
+      <c r="C33" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="28"/>
       <c r="G33" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H33" s="4"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="C34" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="5" t="s">
-        <v>68</v>
       </c>
       <c r="H34" s="4"/>
     </row>
@@ -1608,7 +1607,7 @@
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.3">
@@ -1630,31 +1629,31 @@
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C38" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="34"/>
+        <v>52</v>
+      </c>
+      <c r="C38" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="28"/>
       <c r="G38" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H38" s="4"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C39" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="34"/>
+        <v>66</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="28"/>
       <c r="G39" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H39" s="4"/>
     </row>
@@ -1669,21 +1668,21 @@
     </row>
     <row r="42" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B42" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="2:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B43" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="C43" s="31" t="s">
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="6" t="s">
-        <v>30</v>
       </c>
       <c r="H43" s="6" t="s">
         <v>10</v>
@@ -1691,66 +1690,66 @@
     </row>
     <row r="44" spans="2:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B44" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" s="24" t="s">
         <v>35</v>
-      </c>
-      <c r="C44" s="24" t="s">
-        <v>36</v>
       </c>
       <c r="D44" s="24"/>
       <c r="E44" s="24"/>
       <c r="F44" s="24"/>
       <c r="G44" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H44" s="4"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B45" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C45" s="24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D45" s="24"/>
       <c r="E45" s="24"/>
       <c r="F45" s="24"/>
       <c r="G45" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H45" s="5"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B46" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C46" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D46" s="24"/>
       <c r="E46" s="24"/>
       <c r="F46" s="24"/>
       <c r="G46" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H46" s="5"/>
     </row>
     <row r="49" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B49" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" spans="2:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B50" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="C50" s="31" t="s">
+      <c r="D50" s="29"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="D50" s="31"/>
-      <c r="E50" s="31"/>
-      <c r="F50" s="31"/>
-      <c r="G50" s="6" t="s">
-        <v>30</v>
       </c>
       <c r="H50" s="6" t="s">
         <v>10</v>
@@ -1758,66 +1757,80 @@
     </row>
     <row r="51" spans="2:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B51" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D51" s="24"/>
       <c r="E51" s="24"/>
       <c r="F51" s="24"/>
       <c r="G51" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H51" s="5"/>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B52" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C52" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D52" s="24"/>
       <c r="E52" s="24"/>
       <c r="F52" s="24"/>
       <c r="G52" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H52" s="5"/>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B53" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D53" s="24"/>
       <c r="E53" s="24"/>
       <c r="F53" s="24"/>
       <c r="G53" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H53" s="5"/>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B54" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54" s="24" t="s">
         <v>59</v>
-      </c>
-      <c r="C54" s="24" t="s">
-        <v>60</v>
       </c>
       <c r="D54" s="24"/>
       <c r="E54" s="24"/>
       <c r="F54" s="24"/>
       <c r="G54" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H54" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C34:F34"/>
     <mergeCell ref="C51:F51"/>
     <mergeCell ref="C52:F52"/>
     <mergeCell ref="C53:F53"/>
@@ -1833,20 +1846,6 @@
     <mergeCell ref="C38:F38"/>
     <mergeCell ref="C39:F39"/>
     <mergeCell ref="C46:F46"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C17:F17"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1866,17 +1865,17 @@
   <sheetData>
     <row r="2" spans="2:2" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
